--- a/upload/product_template.xlsx
+++ b/upload/product_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>产品编号</t>
   </si>
@@ -74,13 +74,13 @@
     <t>备注</t>
   </si>
   <si>
-    <t>8100-BW-XLS</t>
-  </si>
-  <si>
-    <t>918912x</t>
-  </si>
-  <si>
-    <t>99.22.99</t>
+    <t>8000-BW-XLS</t>
+  </si>
+  <si>
+    <t>9x1231.11</t>
+  </si>
+  <si>
+    <t>9000-BW-XLS</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1177,28 +1177,28 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="C2" s="3">
-        <v>0.25</v>
+        <v>11.2</v>
       </c>
       <c r="D2" s="3">
-        <v>0.25</v>
+        <v>12.3</v>
       </c>
       <c r="E2" s="3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G2" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H2" s="3">
-        <v>2</v>
+        <v>15200</v>
       </c>
       <c r="I2" s="3">
-        <v>12.22</v>
+        <v>65.5</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>13</v>
@@ -1218,20 +1218,48 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>110</v>
+      </c>
+      <c r="F3" s="3">
+        <v>110</v>
+      </c>
+      <c r="G3" s="3">
+        <v>120</v>
+      </c>
+      <c r="H3" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I3" s="3">
+        <v>65.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>120</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
@@ -1389,7 +1417,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N2 N3 N4:N1048576">
       <formula1>"产品,配件"</formula1>
     </dataValidation>
   </dataValidations>
